--- a/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PetData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
   <si>
     <t>EHeroAttrType</t>
   </si>
@@ -943,6 +943,36 @@
   </si>
   <si>
     <t>Pet/RuneFragment</t>
+  </si>
+  <si>
+    <t>Pet/Rune</t>
+  </si>
+  <si>
+    <t>Pet/Book</t>
+  </si>
+  <si>
+    <t>Pet/Flame</t>
+  </si>
+  <si>
+    <t>Pet/Goldt</t>
+  </si>
+  <si>
+    <t>Pet/Wood</t>
+  </si>
+  <si>
+    <t>Pet/Gold</t>
+  </si>
+  <si>
+    <t>Pet/Scale</t>
+  </si>
+  <si>
+    <t>Pet/Emerald</t>
+  </si>
+  <si>
+    <t>Pet/Blue</t>
+  </si>
+  <si>
+    <t>Pet/Silver</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1869,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H9:H10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1901,6 +1931,9 @@
       <c r="E2" s="0" t="s">
         <v>278</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>316</v>
+      </c>
       <c r="G2" s="0" t="s">
         <v>299</v>
       </c>
@@ -1927,6 +1960,9 @@
       <c r="E3" s="0" t="s">
         <v>279</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>315</v>
+      </c>
       <c r="G3" s="0" t="s">
         <v>298</v>
       </c>
@@ -1953,6 +1989,9 @@
       <c r="E4" s="0" t="s">
         <v>280</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>314</v>
+      </c>
       <c r="G4" s="0" t="s">
         <v>300</v>
       </c>
@@ -1979,6 +2018,9 @@
       <c r="E5" s="0" t="s">
         <v>281</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>313</v>
+      </c>
       <c r="G5" s="0" t="s">
         <v>301</v>
       </c>
@@ -2005,6 +2047,9 @@
       <c r="E6" s="0" t="s">
         <v>282</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>311</v>
+      </c>
       <c r="G6" s="0" t="s">
         <v>302</v>
       </c>
@@ -2031,6 +2076,9 @@
       <c r="E7" s="0" t="s">
         <v>283</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>312</v>
+      </c>
       <c r="G7" s="0" t="s">
         <v>303</v>
       </c>
@@ -2057,6 +2105,9 @@
       <c r="E8" s="0" t="s">
         <v>284</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>309</v>
+      </c>
       <c r="G8" s="0" t="s">
         <v>304</v>
       </c>
@@ -2083,6 +2134,9 @@
       <c r="E9" s="0" t="s">
         <v>285</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>308</v>
+      </c>
       <c r="G9" s="0" t="s">
         <v>305</v>
       </c>
@@ -2108,6 +2162,9 @@
       </c>
       <c r="E10" s="0" t="s">
         <v>286</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>306</v>

--- a/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PetData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>EHeroAttrType</t>
   </si>
@@ -973,6 +973,216 @@
   </si>
   <si>
     <t>Pet/Silver</t>
+  </si>
+  <si>
+    <t>UpgradeIncreaseCount</t>
+  </si>
+  <si>
+    <t>OwnedIncreaseRate</t>
+  </si>
+  <si>
+    <t>OwnedAtkValue</t>
+  </si>
+  <si>
+    <t>OwnedAtkIncreaseRate</t>
+  </si>
+  <si>
+    <t>EquippedValue</t>
+  </si>
+  <si>
+    <t>EquippedIncreaseRate</t>
+  </si>
+  <si>
+    <t>EquippedAtkValue</t>
+  </si>
+  <si>
+    <t>EquippedAtkIncreaseRate</t>
+  </si>
+  <si>
+    <t>EquippedMaxHpValue</t>
+  </si>
+  <si>
+    <t>EquippedHpValue</t>
+  </si>
+  <si>
+    <t>EquippedHpIncreaseRate</t>
+  </si>
+  <si>
+    <t>OwnedAtkPercent</t>
+  </si>
+  <si>
+    <t>OwnedAtkIncreasePercent</t>
+  </si>
+  <si>
+    <t>선봉기사</t>
+  </si>
+  <si>
+    <t>바람 궁수</t>
+  </si>
+  <si>
+    <t>룬 수색자</t>
+  </si>
+  <si>
+    <t>어둠 마법사</t>
+  </si>
+  <si>
+    <t>유랑 창병</t>
+  </si>
+  <si>
+    <t>마법 사제</t>
+  </si>
+  <si>
+    <t>달빛 검술사</t>
+  </si>
+  <si>
+    <t>심연 마법사</t>
+  </si>
+  <si>
+    <t>암흑 기사</t>
+  </si>
+  <si>
+    <t>PetSpriteKey</t>
+  </si>
+  <si>
+    <t>Pet/Ext</t>
+  </si>
+  <si>
+    <t>Pet/Kar</t>
+  </si>
+  <si>
+    <t>Pet/Asha</t>
+  </si>
+  <si>
+    <t>Pet/Torome</t>
+  </si>
+  <si>
+    <t>Pet/Greg</t>
+  </si>
+  <si>
+    <t>Pet/Romes</t>
+  </si>
+  <si>
+    <t>Pet/Kimu</t>
+  </si>
+  <si>
+    <t>Pet/Islil</t>
+  </si>
+  <si>
+    <t>Pet/Handrick</t>
+  </si>
+  <si>
+    <t>PetDesc</t>
+  </si>
+  <si>
+    <t>그는 전장의 최전방에서 적을 막아내며 수많은 전투를 승리로 이끌었다. 그의 강력한 창과 방패는 아군의 최후의 방패가 되었다.</t>
+  </si>
+  <si>
+    <t>바람처럼 가벼운 발걸음과 정확한 화살로 적을 꿰뚫은 궁수였다. 숲의 수호자로 불리던 그녀는 어디서든 적을 무력화시켰다.</t>
+  </si>
+  <si>
+    <t>그는 세상의 숨겨진 비밀을 찾아 떠돌았고, 고대의 룬과 수정에서 강력한 마력을 이끌어냈다. 그의 여정은 수많은 전설을 남겼다.</t>
+  </si>
+  <si>
+    <t>어둠의 힘을 다루던 그는 그림자 속에서 적을 공포에 몰아넣었다. 그의 마법은 한때 전장을 집어삼킬 정도로 강력했다.</t>
+  </si>
+  <si>
+    <t>세상을 떠돌던 그는 날렵한 창술과 재빠른 판단력으로 수많은 전투에서 승리를 거두었다. 그는 어디든 전투가 있는 곳에 나타났다.</t>
+  </si>
+  <si>
+    <t>그녀는 성스러운 마력으로 아군을 치유하고 보호하며 희망을 불어넣었다. 그녀의 주문은 어둠 속에서도 빛이 되었다.</t>
+  </si>
+  <si>
+    <t>그는 달빛 아래에서 춤추듯 검을 휘둘렀고, 그의 검은 적을 무력화하며 전설이 되었다. 우아하면서도 치명적인 존재였다.</t>
+  </si>
+  <si>
+    <t>그는 심연의 힘을 불러내어 적을 끝없는 어둠 속으로 몰아넣었다. 그의 마법은 그 누구도 범접할 수 없는 공포였다.</t>
+  </si>
+  <si>
+    <t>무거운 갑옷과 거대한 검을 휘두르며 그는 전장을 지배했다. 어둠의 힘을 등에 업은 그의 모습은 적들에게 공포 그 자체였다.</t>
+  </si>
+  <si>
+    <t>그는 전장의 최전방에서 적을 막아내며 수많은 전투를 승리로 이끌었다. 그의 강력한 창과 방패는 아군의 최후의 방패가 되었다</t>
+  </si>
+  <si>
+    <t>바람처럼 가벼운 발걸음과 정확한 화살로 적을 꿰뚫은 궁수였다. 숲의 수호자로 불리던 그녀는 어디서든 적을 무력화시켰다</t>
+  </si>
+  <si>
+    <t>그는 세상의 숨겨진 비밀을 찾아 떠돌았고, 고대의 룬과 수정에서 강력한 마력을 이끌어냈다. 그의 여정은 수많은 전설을 남겼다</t>
+  </si>
+  <si>
+    <t>어둠의 힘을 다루던 그는 그림자 속에서 적을 공포에 몰아넣었다. 그의 마법은 한때 전장을 집어삼킬 정도로 강력했다</t>
+  </si>
+  <si>
+    <t>세상을 떠돌던 그는 날렵한 창술과 재빠른 판단력으로 수많은 전투에서 승리를 거두었다. 그는 어디든 전투가 있는 곳에 나타났다</t>
+  </si>
+  <si>
+    <t>그녀는 성스러운 마력으로 아군을 치유하고 보호하며 희망을 불어넣었다. 그녀의 주문은 어둠 속에서도 빛이 되었다</t>
+  </si>
+  <si>
+    <t>그는 달빛 아래에서 춤추듯 검을 휘둘렀고, 그의 검은 적을 무력화하며 전설이 되었다. 우아하면서도 치명적인 존재였다</t>
+  </si>
+  <si>
+    <t>그는 심연의 힘을 불러내어 적을 끝없는 어둠 속으로 몰아넣었다. 그의 마법은 그 누구도 범접할 수 없는 공포였다</t>
+  </si>
+  <si>
+    <t>무거운 갑옷과 거대한 검을 휘두르며 그는 전장을 지배했다. 어둠의 힘을 등에 업은 그의 모습은 적들에게 공포 그 자체였다</t>
+  </si>
+  <si>
+    <t>웅</t>
+  </si>
+  <si>
+    <t>"그는 전장의 최전방에서 적을 막아내며 수많은 전투를 승리로 이끌었다. 그의 강력한 창과 방패는 아군의 최후의 방패가 되었다."</t>
+  </si>
+  <si>
+    <t>"바람처럼 가벼운 발걸음과 정확한 화살로 적을 꿰뚫은 궁수였다. 숲의 수호자로 불리던 그녀는 어디서든 적을 무력화시켰다."</t>
+  </si>
+  <si>
+    <t>"그는 세상의 숨겨진 비밀을 찾아 떠돌았고, 고대의 룬과 수정에서 강력한 마력을 이끌어냈다. 그의 여정은 수많은 전설을 남겼다."</t>
+  </si>
+  <si>
+    <t>"어둠의 힘을 다루던 그는 그림자 속에서 적을 공포에 몰아넣었다. 그의 마법은 한때 전장을 집어삼킬 정도로 강력했다."</t>
+  </si>
+  <si>
+    <t>"세상을 떠돌던 그는 날렵한 창술과 재빠른 판단력으로 수많은 전투에서 승리를 거두었다. 그는 어디든 전투가 있는 곳에 나타났다."</t>
+  </si>
+  <si>
+    <t>"그녀는 성스러운 마력으로 아군을 치유하고 보호하며 희망을 불어넣었다. 그녀의 주문은 어둠 속에서도 빛이 되었다."</t>
+  </si>
+  <si>
+    <t>"그는 달빛 아래에서 춤추듯 검을 휘둘렀고, 그의 검은 적을 무력화하며 전설이 되었다. 우아하면서도 치명적인 존재였다."</t>
+  </si>
+  <si>
+    <t>"그는 심연의 힘을 불러내어 적을 끝없는 어둠 속으로 몰아넣었다. 그의 마법은 그 누구도 범접할 수 없는 공포였다."</t>
+  </si>
+  <si>
+    <t>"무거운 갑옷과 거대한 검을 휘두르며 그는 전장을 지배했다. 어둠의 힘을 등에 업은 그의 모습은 적들에게 공포 그 자체였다."</t>
+  </si>
+  <si>
+    <t>전장의 최전방에서 싸우며 아군을 지켜낸 강인한 기사였다.</t>
+  </si>
+  <si>
+    <t>바람처럼 움직이며 적을 꿰뚫은 숲의 수호자였다.</t>
+  </si>
+  <si>
+    <t>고대의 룬과 마력을 찾아 떠돌던 탐사자였다.</t>
+  </si>
+  <si>
+    <t>어둠의 힘으로 적을 공포에 빠뜨리던 마법사였다.</t>
+  </si>
+  <si>
+    <t>무거운 갑옷과 검으로 전장을 지배하던 어둠의 기사였다.</t>
+  </si>
+  <si>
+    <t>심연의 마법으로 적을 끝없는 어둠에 가두던 자였다.</t>
+  </si>
+  <si>
+    <t>달빛 아래에서 우아하게 검을 휘두르던 전설의 검술사였다.</t>
+  </si>
+  <si>
+    <t>성스러운 마력으로 아군을 치유하며 희망을 전한 사제였다.</t>
+  </si>
+  <si>
+    <t>세상을 떠돌며 날렵한 창술로 전투를 지배하던 전사였다.</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1091,6 +1301,12 @@
       <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1544,8 +1760,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1866,24 +2088,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="18.37999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" width="19.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="20.87999916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="25.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" width="18.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="13.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="25.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="17.87999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="24.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="19.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" width="20.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="21.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="23.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="18.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="25.12999916" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="20.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="25.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="21.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="24.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="16" max="16" width="26.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" width="26.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="0" t="s">
         <v>256</v>
       </c>
@@ -1891,289 +2122,469 @@
         <v>287</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="G1" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>274</v>
+      <c r="K1" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:16">
       <c r="A2" s="0" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" s="0">
+        <v>330</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="0">
         <v>1</v>
       </c>
-      <c r="D2" s="0">
+      <c r="E2" s="0">
         <v>0.3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="0">
-        <v>10</v>
-      </c>
       <c r="J2" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K2" s="0">
+        <v>10</v>
+      </c>
+      <c r="L2" s="0">
+        <v>24</v>
+      </c>
+      <c r="M2" s="0">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0">
+        <v>24</v>
+      </c>
+      <c r="O2" s="0">
+        <v>10</v>
+      </c>
+      <c r="P2" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16">
       <c r="A3" s="0" t="s">
         <v>258</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="0">
+        <v>331</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0">
+      <c r="E3" s="0">
         <v>0.3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="G3" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="0">
-        <v>10</v>
-      </c>
       <c r="J3" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="0">
+        <v>10</v>
+      </c>
+      <c r="L3" s="0">
+        <v>24</v>
+      </c>
+      <c r="M3" s="0">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0">
+        <v>24</v>
+      </c>
+      <c r="O3" s="0">
+        <v>10</v>
+      </c>
+      <c r="P3" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16">
       <c r="A4" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="0">
+        <v>332</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="0">
         <v>3</v>
       </c>
-      <c r="D4" s="0">
+      <c r="E4" s="0">
         <v>0.3</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="G4" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="0">
-        <v>10</v>
-      </c>
       <c r="J4" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K4" s="0">
+        <v>10</v>
+      </c>
+      <c r="L4" s="0">
+        <v>24</v>
+      </c>
+      <c r="M4" s="0">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0">
+        <v>24</v>
+      </c>
+      <c r="O4" s="0">
+        <v>10</v>
+      </c>
+      <c r="P4" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16">
       <c r="A5" s="0" t="s">
         <v>260</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="0">
+        <v>333</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="0">
         <v>4</v>
       </c>
-      <c r="D5" s="0">
+      <c r="E5" s="0">
         <v>0.3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>313</v>
-      </c>
       <c r="G5" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="I5" s="0">
-        <v>10</v>
-      </c>
       <c r="J5" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="0">
+        <v>10</v>
+      </c>
+      <c r="L5" s="0">
+        <v>24</v>
+      </c>
+      <c r="M5" s="0">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0">
+        <v>24</v>
+      </c>
+      <c r="O5" s="0">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16">
       <c r="A6" s="0" t="s">
         <v>261</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="0">
+        <v>334</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="0">
         <v>5</v>
       </c>
-      <c r="D6" s="0">
+      <c r="E6" s="0">
         <v>0.3</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>311</v>
-      </c>
       <c r="G6" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="I6" s="0">
-        <v>10</v>
-      </c>
       <c r="J6" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="0">
+        <v>10</v>
+      </c>
+      <c r="L6" s="0">
+        <v>24</v>
+      </c>
+      <c r="M6" s="0">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0">
+        <v>10</v>
+      </c>
+      <c r="P6" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:16">
       <c r="A7" s="0" t="s">
         <v>262</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="0">
+        <v>335</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="0">
         <v>6</v>
       </c>
-      <c r="D7" s="0">
+      <c r="E7" s="0">
         <v>0.3</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>312</v>
-      </c>
       <c r="G7" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="I7" s="0">
-        <v>10</v>
-      </c>
       <c r="J7" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K7" s="0">
+        <v>10</v>
+      </c>
+      <c r="L7" s="0">
+        <v>24</v>
+      </c>
+      <c r="M7" s="0">
+        <v>10</v>
+      </c>
+      <c r="N7" s="0">
+        <v>24</v>
+      </c>
+      <c r="O7" s="0">
+        <v>10</v>
+      </c>
+      <c r="P7" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:16">
       <c r="A8" s="0" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="0">
+        <v>336</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="0">
         <v>7</v>
       </c>
-      <c r="D8" s="0">
+      <c r="E8" s="0">
         <v>0.3</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>309</v>
-      </c>
       <c r="G8" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="I8" s="0">
-        <v>10</v>
-      </c>
       <c r="J8" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K8" s="0">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0">
+        <v>24</v>
+      </c>
+      <c r="M8" s="0">
+        <v>10</v>
+      </c>
+      <c r="N8" s="0">
+        <v>24</v>
+      </c>
+      <c r="O8" s="0">
+        <v>10</v>
+      </c>
+      <c r="P8" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:16">
       <c r="A9" s="0" t="s">
         <v>264</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="0">
+        <v>337</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="0">
         <v>8</v>
       </c>
-      <c r="D9" s="0">
+      <c r="E9" s="0">
         <v>0.3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>308</v>
-      </c>
       <c r="G9" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="0">
-        <v>10</v>
-      </c>
       <c r="J9" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K9" s="0">
+        <v>10</v>
+      </c>
+      <c r="L9" s="0">
+        <v>24</v>
+      </c>
+      <c r="M9" s="0">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0">
+        <v>24</v>
+      </c>
+      <c r="O9" s="0">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:16">
       <c r="A10" s="0" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="0">
+        <v>338</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="0">
         <v>9</v>
       </c>
-      <c r="D10" s="0">
+      <c r="E10" s="0">
         <v>0.3</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="G10" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="I10" s="0">
-        <v>10</v>
-      </c>
       <c r="J10" s="0">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="0">
+        <v>10</v>
+      </c>
+      <c r="L10" s="0">
+        <v>24</v>
+      </c>
+      <c r="M10" s="0">
+        <v>10</v>
+      </c>
+      <c r="N10" s="0">
+        <v>24</v>
+      </c>
+      <c r="O10" s="0">
+        <v>10</v>
+      </c>
+      <c r="P10" s="0">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
+++ b/P1/Assets/Resources/Data/ExcelData/PetData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="420" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="390" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PetData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>EHeroAttrType</t>
   </si>
@@ -1183,6 +1183,96 @@
   </si>
   <si>
     <t>세상을 떠돌며 날렵한 창술로 전투를 지배하던 전사였다.</t>
+  </si>
+  <si>
+    <t>PetObjectPrefabKey</t>
+  </si>
+  <si>
+    <t>Object/Pet/Handrick</t>
+  </si>
+  <si>
+    <t>Object/Pet/Ext</t>
+  </si>
+  <si>
+    <t>Object/Pet/Kar</t>
+  </si>
+  <si>
+    <t>Pet/Handrick/handrick01_03</t>
+  </si>
+  <si>
+    <t>Pet/HandrickObject/handrick01_03</t>
+  </si>
+  <si>
+    <t>Pet/IslilObject/Islil01_03</t>
+  </si>
+  <si>
+    <t>Pet/KimuObject/kimu01_03</t>
+  </si>
+  <si>
+    <t>Pet/RomesObject/romes01_03</t>
+  </si>
+  <si>
+    <t>Pet/GregObject/greg01_03</t>
+  </si>
+  <si>
+    <t>Pet/ToromeObject/torome01_03</t>
+  </si>
+  <si>
+    <t>Pet/AshaObject/asha01_03</t>
+  </si>
+  <si>
+    <t>Pet/KarObject/kar01_03</t>
+  </si>
+  <si>
+    <t>Pet/ExtObject/ext01_03</t>
+  </si>
+  <si>
+    <t>Object/Pet/Islil</t>
+  </si>
+  <si>
+    <t>Object/Pet/Kimu</t>
+  </si>
+  <si>
+    <t>Object/Pet/Romes</t>
+  </si>
+  <si>
+    <t>Object/Pet/Greg</t>
+  </si>
+  <si>
+    <t>Object/Pet/Torome</t>
+  </si>
+  <si>
+    <t>Object/Pet/Asha</t>
+  </si>
+  <si>
+    <t>Pet/IslilObject/isli01_03</t>
+  </si>
+  <si>
+    <t>vanguardKnight</t>
+  </si>
+  <si>
+    <t>windArcher</t>
+  </si>
+  <si>
+    <t>runeSeeker</t>
+  </si>
+  <si>
+    <t>darkMage</t>
+  </si>
+  <si>
+    <t>wanderingSpearman</t>
+  </si>
+  <si>
+    <t>magicPriest</t>
+  </si>
+  <si>
+    <t>abyssMage</t>
+  </si>
+  <si>
+    <t>moonlightSwordsman</t>
+  </si>
+  <si>
+    <t>darkKnight</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1307,6 +1397,11 @@
       <name val="맑은 고딕"/>
       <color theme="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <color rgb="FFCE9178"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1760,7 +1855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1768,6 +1863,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2103,8 +2201,8 @@
     <col min="6" max="6" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" width="19.62999916" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" width="21.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" width="23.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="18.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="38.00500107" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="29.00499916" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" width="25.12999916" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="13" max="13" width="25.25499916" customWidth="1" outlineLevel="0"/>
@@ -2114,7 +2212,7 @@
     <col min="17" max="17" width="26.37999916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="0" t="s">
         <v>256</v>
       </c>
@@ -2122,81 +2220,90 @@
         <v>287</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="0" t="s">
         <v>257</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="0">
+      <c r="E2" s="0">
         <v>1</v>
       </c>
-      <c r="E2" s="0">
+      <c r="F2" s="0">
         <v>0.3</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="J2" s="0">
-        <v>10</v>
-      </c>
-      <c r="K2" s="0">
-        <v>10</v>
+      <c r="J2" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>388</v>
       </c>
       <c r="L2" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M2" s="0">
         <v>10</v>
@@ -2210,40 +2317,49 @@
       <c r="P2" s="0">
         <v>24</v>
       </c>
+      <c r="Q2" s="0">
+        <v>10</v>
+      </c>
+      <c r="R2" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="0" t="s">
         <v>258</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="0">
+      <c r="E3" s="0">
         <v>2</v>
       </c>
-      <c r="E3" s="0">
+      <c r="F3" s="0">
         <v>0.3</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="J3" s="0">
-        <v>10</v>
-      </c>
-      <c r="K3" s="0">
-        <v>10</v>
+      <c r="J3" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>401</v>
       </c>
       <c r="L3" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M3" s="0">
         <v>10</v>
@@ -2257,40 +2373,49 @@
       <c r="P3" s="0">
         <v>24</v>
       </c>
+      <c r="Q3" s="0">
+        <v>10</v>
+      </c>
+      <c r="R3" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" s="0" t="s">
         <v>259</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="0">
+      <c r="E4" s="0">
         <v>3</v>
       </c>
-      <c r="E4" s="0">
+      <c r="F4" s="0">
         <v>0.3</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="J4" s="0">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0">
-        <v>10</v>
+      <c r="J4" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>402</v>
       </c>
       <c r="L4" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M4" s="0">
         <v>10</v>
@@ -2304,40 +2429,49 @@
       <c r="P4" s="0">
         <v>24</v>
       </c>
+      <c r="Q4" s="0">
+        <v>10</v>
+      </c>
+      <c r="R4" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="0" t="s">
         <v>260</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="0">
+      <c r="E5" s="0">
         <v>4</v>
       </c>
-      <c r="E5" s="0">
+      <c r="F5" s="0">
         <v>0.3</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="J5" s="0">
-        <v>10</v>
-      </c>
-      <c r="K5" s="0">
-        <v>10</v>
+      <c r="J5" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>403</v>
       </c>
       <c r="L5" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M5" s="0">
         <v>10</v>
@@ -2351,40 +2485,49 @@
       <c r="P5" s="0">
         <v>24</v>
       </c>
+      <c r="Q5" s="0">
+        <v>10</v>
+      </c>
+      <c r="R5" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" s="0" t="s">
         <v>261</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="0">
+      <c r="E6" s="0">
         <v>5</v>
       </c>
-      <c r="E6" s="0">
+      <c r="F6" s="0">
         <v>0.3</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="J6" s="0">
-        <v>10</v>
-      </c>
-      <c r="K6" s="0">
-        <v>10</v>
+      <c r="J6" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>404</v>
       </c>
       <c r="L6" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M6" s="0">
         <v>10</v>
@@ -2398,40 +2541,49 @@
       <c r="P6" s="0">
         <v>24</v>
       </c>
+      <c r="Q6" s="0">
+        <v>10</v>
+      </c>
+      <c r="R6" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" s="0" t="s">
         <v>262</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="0">
+      <c r="E7" s="0">
         <v>6</v>
       </c>
-      <c r="E7" s="0">
+      <c r="F7" s="0">
         <v>0.3</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="0">
-        <v>10</v>
-      </c>
-      <c r="K7" s="0">
-        <v>10</v>
+      <c r="J7" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>405</v>
       </c>
       <c r="L7" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M7" s="0">
         <v>10</v>
@@ -2445,40 +2597,49 @@
       <c r="P7" s="0">
         <v>24</v>
       </c>
+      <c r="Q7" s="0">
+        <v>10</v>
+      </c>
+      <c r="R7" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" s="0" t="s">
         <v>263</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D8" s="0">
+      <c r="E8" s="0">
         <v>7</v>
       </c>
-      <c r="E8" s="0">
+      <c r="F8" s="0">
         <v>0.3</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="J8" s="0">
-        <v>10</v>
-      </c>
-      <c r="K8" s="0">
-        <v>10</v>
+      <c r="J8" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>406</v>
       </c>
       <c r="L8" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M8" s="0">
         <v>10</v>
@@ -2492,40 +2653,49 @@
       <c r="P8" s="0">
         <v>24</v>
       </c>
+      <c r="Q8" s="0">
+        <v>10</v>
+      </c>
+      <c r="R8" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" s="0" t="s">
         <v>264</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="0">
+      <c r="E9" s="0">
         <v>8</v>
       </c>
-      <c r="E9" s="0">
+      <c r="F9" s="0">
         <v>0.3</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="J9" s="0">
-        <v>10</v>
-      </c>
-      <c r="K9" s="0">
-        <v>10</v>
+      <c r="J9" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="L9" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M9" s="0">
         <v>10</v>
@@ -2539,40 +2709,49 @@
       <c r="P9" s="0">
         <v>24</v>
       </c>
+      <c r="Q9" s="0">
+        <v>10</v>
+      </c>
+      <c r="R9" s="0">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" s="0" t="s">
         <v>265</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="0">
+      <c r="E10" s="0">
         <v>9</v>
       </c>
-      <c r="E10" s="0">
+      <c r="F10" s="0">
         <v>0.3</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="J10" s="0">
-        <v>10</v>
-      </c>
-      <c r="K10" s="0">
-        <v>10</v>
+      <c r="J10" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>389</v>
       </c>
       <c r="L10" s="0">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M10" s="0">
         <v>10</v>
@@ -2584,6 +2763,12 @@
         <v>10</v>
       </c>
       <c r="P10" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>10</v>
+      </c>
+      <c r="R10" s="0">
         <v>24</v>
       </c>
     </row>
